--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.040521.xlsx_with_dialog_acts.xlsx
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5905,12 +5905,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7273,12 +7273,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7539,12 +7539,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7615,12 +7615,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7957,12 +7957,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8109,12 +8109,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9291,12 +9291,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11195,12 +11195,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11535,12 +11535,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11763,12 +11763,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11801,12 +11801,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12067,12 +12067,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12751,12 +12751,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12789,12 +12789,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14309,12 +14309,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14727,12 +14727,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14841,12 +14841,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14921,12 +14921,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15757,12 +15757,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15833,12 +15833,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16213,12 +16213,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16327,12 +16327,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16403,12 +16403,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16705,12 +16705,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
